--- a/resource/excel_ui/Setting.xlsx
+++ b/resource/excel_ui/Setting.xlsx
@@ -31,7 +31,7 @@
     <t>Partial:3</t>
   </si>
   <si>
-    <t>加入游戏&lt;color=yellow&gt;2金&lt;/color&gt;/s,自动出兵不消耗资源，发送字母和数字设置自动出兵配置。;&lt;color=#6DFF00&gt;礼物出的兵质量更高,还能获得功勋&lt;color=yellow&gt;1电池=0.5功勋&lt;/color&gt;，其余未列出的礼物按&lt;color=yellow&gt;1电池=1功勋&lt;/color&gt;结算&lt;/color&gt;;&lt;color=#6DFF00&gt;人气票&lt;/color&gt;=&lt;color=yellow&gt;60金&lt;/color&gt; | &lt;color=#6DFF00&gt;小花花&lt;/color&gt;=&lt;color=yellow&gt;30金&lt;/color&gt; | &lt;color=#6DFF00&gt;牛哇牛哇&lt;/color&gt;=&lt;color=yellow&gt;3*风琴炮&lt;/color&gt; | &lt;color=#6DFF00&gt;干杯&lt;/color&gt;=&lt;color=yellow&gt;24*乌尔班巨炮(防守利器)&lt;/color&gt; | &lt;color=#6DFF00&gt;棒棒糖&lt;/color&gt;=&lt;color=yellow&gt;5*精锐古拉姆&lt;/color&gt;;&lt;color=#6DFF00&gt;这个好诶&lt;/color&gt;=&lt;color=yellow&gt;16*精锐射击军&lt;/color&gt; | &lt;color=#6DFF00&gt;小蛋糕&lt;/color&gt;=&lt;color=yellow&gt;18*精锐掷弹兵&lt;/color&gt; | &lt;color=#6DFF00&gt;情书&lt;/color&gt;=&lt;color=yellow&gt;20*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;水晶之恋&lt;/color&gt;=&lt;color=yellow&gt;21*精锐大筒兵&lt;/color&gt;;&lt;color=#6DFF00&gt;告白花束&lt;/color&gt;=&lt;color=yellow&gt;120*精锐大筒兵&lt;/color&gt;+&lt;color=yellow&gt;100*精锐武士&lt;/color&gt;+&lt;color=yellow&gt;36*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;星河入梦&lt;/color&gt;=&lt;color=yellow&gt;旗本军团&lt;/color&gt;+&lt;color=yellow&gt;100*弩车&lt;/color&gt;;&lt;color=#6DFF00&gt;星愿水晶球&lt;/color&gt;=&lt;color=yellow&gt;国王卫队&lt;color=#93FF86&gt;(高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;花式夸夸&lt;/color&gt;=&lt;color=yellow&gt;沙漠掠夺者军团&lt;color=#93FF86&gt;(高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;小蝴蝶&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%攻击&lt;/color&gt;&lt;/color&gt;;&lt;color=#6DFF00&gt;打call&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%血量&lt;/color&gt;  &lt;/color&gt;提督舰长福利可以查看置顶动态。</t>
+    <t>加入游戏&lt;color=yellow&gt;2金&lt;/color&gt;/s,自动出兵不消耗资源，发送字母和数字设置自动出兵配置。;&lt;color=#6DFF00&gt;礼物出的兵质量更高,还能获得功勋&lt;color=yellow&gt;1电池=0.5功勋&lt;/color&gt;，其余未列出的礼物按&lt;color=yellow&gt;1电池=1功勋&lt;/color&gt;结算&lt;/color&gt;;&lt;color=#6DFF00&gt;人气票&lt;/color&gt;=&lt;color=yellow&gt;60金&lt;/color&gt; | &lt;color=#6DFF00&gt;小花花&lt;/color&gt;=&lt;color=yellow&gt;30金&lt;/color&gt; | &lt;color=#6DFF00&gt;牛哇牛哇&lt;/color&gt;=&lt;color=yellow&gt;3*风琴炮&lt;/color&gt; | &lt;color=#6DFF00&gt;干杯&lt;/color&gt;=&lt;color=yellow&gt;15*乌尔班巨炮(防守利器)&lt;/color&gt; | &lt;color=#6DFF00&gt;棒棒糖&lt;/color&gt;=&lt;color=yellow&gt;5*精锐古拉姆&lt;/color&gt;;&lt;color=#6DFF00&gt;这个好诶&lt;/color&gt;=&lt;color=yellow&gt;16*精锐射击军&lt;/color&gt; | &lt;color=#6DFF00&gt;小蛋糕&lt;/color&gt;=&lt;color=yellow&gt;18*精锐掷弹兵&lt;/color&gt; | &lt;color=#6DFF00&gt;情书&lt;/color&gt;=&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;水晶之恋&lt;/color&gt;=&lt;color=yellow&gt;21*精锐大筒兵&lt;/color&gt;;&lt;color=#6DFF00&gt;告白花束&lt;/color&gt;=&lt;color=yellow&gt;120*精锐大筒兵&lt;/color&gt;+&lt;color=yellow&gt;100*精锐武士&lt;/color&gt;+&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;星河入梦&lt;/color&gt;=&lt;color=yellow&gt;旗本军团&lt;/color&gt;+&lt;color=yellow&gt;100*弩车&lt;/color&gt;;&lt;color=#6DFF00&gt;星愿水晶球&lt;/color&gt;=&lt;color=yellow&gt;国王卫队&lt;color=#93FF86&gt;(高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;花式夸夸&lt;/color&gt;=&lt;color=yellow&gt;沙漠掠夺者军团&lt;color=#93FF86&gt;(高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;小蝴蝶&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%攻击&lt;/color&gt;&lt;/color&gt;;&lt;color=#6DFF00&gt;打call&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%血量&lt;/color&gt;  &lt;/color&gt;提督舰长福利可以查看置顶动态。</t>
   </si>
   <si>
     <t xml:space="preserve">发送&lt;color=#6DFF00&gt;加入&lt;/color&gt;加入游戏，命令用的&lt;color=#6DFF00&gt;x&lt;/color&gt;都是&lt;color=yellow&gt;小写艾克斯&lt;/color&gt;;&lt;color=#6DFF00&gt;点赞&lt;/color&gt;可获得&lt;color=yellow&gt;金矿&lt;/color&gt;粉丝牌有加成;&lt;color=#6DFF00&gt;签到&lt;/color&gt;命令，&lt;color=yellow&gt;舰长/提督/粉丝牌&lt;/color&gt;有加成;&lt;color=#6DFF00&gt;暴兵&lt;/color&gt;命令，&lt;color=yellow&gt;暴11ab(兵种配置)&lt;/color&gt;;功勋暴兵命令，&lt;color=#6DFF00&gt;z12x30&lt;/color&gt;爆30功勋的步弓手和武士;&lt;color=#6DFF00&gt;背包&lt;/color&gt;命令，可查看背包里的礼物;使用背包礼物，&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿水晶球&lt;/color&gt;可简写&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿&lt;/color&gt;;&lt;color=#6DFF00&gt;升&lt;/color&gt;级命令，&lt;color=#6DFF00&gt;升0&lt;/color&gt;升级长矛兵，优先金矿;&lt;color=#6DFF00&gt;查询&lt;/color&gt;命令可查看&lt;color=yellow&gt;金矿数和功勋&lt;/color&gt;;人数少的阵营在结算时可获得一定的补偿
@@ -44,9 +44,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -64,6 +64,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -72,15 +88,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,6 +124,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -110,84 +140,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +168,45 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -241,175 +241,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +420,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,35 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,32 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>

--- a/resource/excel_ui/Setting.xlsx
+++ b/resource/excel_ui/Setting.xlsx
@@ -31,10 +31,10 @@
     <t>Partial:3</t>
   </si>
   <si>
-    <t>加入游戏&lt;color=yellow&gt;2金&lt;/color&gt;/s,自动出兵不消耗资源，发送字母和数字设置自动出兵配置。;&lt;color=#6DFF00&gt;礼物出的兵质量更高,还能获得功勋&lt;color=yellow&gt;1电池=0.5功勋&lt;/color&gt;，其余未列出的礼物按&lt;color=yellow&gt;1电池=1功勋&lt;/color&gt;结算&lt;/color&gt;;&lt;color=#6DFF00&gt;人气票&lt;/color&gt;=&lt;color=yellow&gt;60金&lt;/color&gt; | &lt;color=#6DFF00&gt;小花花&lt;/color&gt;=&lt;color=yellow&gt;30金&lt;/color&gt; | &lt;color=#6DFF00&gt;牛哇牛哇&lt;/color&gt;=&lt;color=yellow&gt;3*风琴炮&lt;/color&gt; | &lt;color=#6DFF00&gt;干杯&lt;/color&gt;=&lt;color=yellow&gt;15*乌尔班巨炮(防守利器)&lt;/color&gt; | &lt;color=#6DFF00&gt;棒棒糖&lt;/color&gt;=&lt;color=yellow&gt;5*精锐古拉姆&lt;/color&gt;;&lt;color=#6DFF00&gt;这个好诶&lt;/color&gt;=&lt;color=yellow&gt;16*精锐射击军&lt;/color&gt; | &lt;color=#6DFF00&gt;小蛋糕&lt;/color&gt;=&lt;color=yellow&gt;18*精锐掷弹兵&lt;/color&gt; | &lt;color=#6DFF00&gt;情书&lt;/color&gt;=&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;水晶之恋&lt;/color&gt;=&lt;color=yellow&gt;21*精锐大筒兵&lt;/color&gt;;&lt;color=#6DFF00&gt;告白花束&lt;/color&gt;=&lt;color=yellow&gt;120*精锐大筒兵&lt;/color&gt;+&lt;color=yellow&gt;100*精锐武士&lt;/color&gt;+&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;星河入梦&lt;/color&gt;=&lt;color=yellow&gt;旗本军团&lt;/color&gt;+&lt;color=yellow&gt;100*弩车&lt;/color&gt;;&lt;color=#6DFF00&gt;星愿水晶球&lt;/color&gt;=&lt;color=yellow&gt;国王卫队&lt;color=#93FF86&gt;(高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;花式夸夸&lt;/color&gt;=&lt;color=yellow&gt;沙漠掠夺者军团&lt;color=#93FF86&gt;(高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;小蝴蝶&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%攻击&lt;/color&gt;&lt;/color&gt;;&lt;color=#6DFF00&gt;打call&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%血量&lt;/color&gt;  &lt;/color&gt;提督舰长福利可以查看置顶动态。</t>
+    <t>加入游戏&lt;color=yellow&gt;2金&lt;/color&gt;/s,自动出兵不消耗资源，发送字母和数字设置自动出兵配置。;&lt;color=#6DFF00&gt;礼物出的兵质量更高,还能获得功勋&lt;color=yellow&gt;1电池=0.5功勋&lt;/color&gt;，其余未列出的礼物按&lt;color=yellow&gt;1电池=1功勋&lt;/color&gt;结算&lt;/color&gt;;&lt;color=#6DFF00&gt;人气票&lt;/color&gt;=&lt;color=yellow&gt;60金&lt;/color&gt; | &lt;color=#6DFF00&gt;小花花&lt;/color&gt;=&lt;color=yellow&gt;30金&lt;/color&gt; | &lt;color=#6DFF00&gt;牛哇牛哇&lt;/color&gt;=&lt;color=yellow&gt;3*风琴炮&lt;/color&gt; | &lt;color=#6DFF00&gt;干杯&lt;/color&gt;=&lt;color=yellow&gt;15*乌尔班巨炮(防守利器)&lt;/color&gt; | &lt;color=#6DFF00&gt;棒棒糖&lt;/color&gt;=&lt;color=yellow&gt;5*精锐古拉姆&lt;/color&gt;;&lt;color=#6DFF00&gt;这个好诶&lt;/color&gt;=&lt;color=yellow&gt;16*精锐射击军&lt;/color&gt; | &lt;color=#6DFF00&gt;小蛋糕&lt;/color&gt;=&lt;color=yellow&gt;7*蜂窝炮&lt;/color&gt; | &lt;color=#6DFF00&gt;情书&lt;/color&gt;=&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;水晶之恋&lt;/color&gt;=&lt;color=yellow&gt;21*精锐大筒兵&lt;/color&gt;;&lt;color=#6DFF00&gt;告白花束&lt;/color&gt;=&lt;color=yellow&gt;120*精锐大筒兵&lt;/color&gt;+&lt;color=yellow&gt;100*精锐武士&lt;/color&gt;+&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;星河入梦&lt;/color&gt;=&lt;color=yellow&gt;旗本军团&lt;/color&gt;+&lt;color=yellow&gt;100*弩车&lt;/color&gt;;&lt;color=#6DFF00&gt;星愿水晶球&lt;/color&gt;=&lt;color=yellow&gt;国王卫队&lt;color=#93FF86&gt;(超高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;花式夸夸&lt;/color&gt;=&lt;color=yellow&gt;沙漠掠夺者军团&lt;color=#93FF86&gt;(高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;小蝴蝶&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%攻击(可叠加)&lt;/color&gt;&lt;/color&gt;;&lt;color=#6DFF00&gt;打call&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%血量(可叠加)&lt;/color&gt;  &lt;/color&gt;提督舰长福利可以查看置顶动态。</t>
   </si>
   <si>
-    <t xml:space="preserve">发送&lt;color=#6DFF00&gt;加入&lt;/color&gt;加入游戏，命令用的&lt;color=#6DFF00&gt;x&lt;/color&gt;都是&lt;color=yellow&gt;小写艾克斯&lt;/color&gt;;&lt;color=#6DFF00&gt;点赞&lt;/color&gt;可获得&lt;color=yellow&gt;金矿&lt;/color&gt;粉丝牌有加成;&lt;color=#6DFF00&gt;签到&lt;/color&gt;命令，&lt;color=yellow&gt;舰长/提督/粉丝牌&lt;/color&gt;有加成;&lt;color=#6DFF00&gt;暴兵&lt;/color&gt;命令，&lt;color=yellow&gt;暴11ab(兵种配置)&lt;/color&gt;;功勋暴兵命令，&lt;color=#6DFF00&gt;z12x30&lt;/color&gt;爆30功勋的步弓手和武士;&lt;color=#6DFF00&gt;背包&lt;/color&gt;命令，可查看背包里的礼物;使用背包礼物，&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿水晶球&lt;/color&gt;可简写&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿&lt;/color&gt;;&lt;color=#6DFF00&gt;升&lt;/color&gt;级命令，&lt;color=#6DFF00&gt;升0&lt;/color&gt;升级长矛兵，优先金矿;&lt;color=#6DFF00&gt;查询&lt;/color&gt;命令可查看&lt;color=yellow&gt;金矿数和功勋&lt;/color&gt;;人数少的阵营在结算时可获得一定的补偿
+    <t xml:space="preserve">发送&lt;color=#6DFF00&gt;加入&lt;/color&gt;加入游戏，命令用的&lt;color=#6DFF00&gt;x&lt;/color&gt;都是&lt;color=yellow&gt;小写艾克斯&lt;/color&gt;;&lt;color=#6DFF00&gt;加石&lt;/color&gt;可以把塔换成石头&lt;color=yellow&gt;(不会被攻击)&lt;/color&gt;;&lt;color=#6DFF00&gt;攻&lt;/color&gt;红/蓝/红金/蓝金;&lt;color=#6DFF00&gt;点赞&lt;/color&gt;可获得&lt;color=yellow&gt;金矿&lt;/color&gt;粉丝牌有加成;&lt;color=#6DFF00&gt;签到&lt;/color&gt;命令，&lt;color=yellow&gt;舰长/提督/粉丝牌&lt;/color&gt;有加成;&lt;color=#6DFF00&gt;暴兵&lt;/color&gt;命令，&lt;color=yellow&gt;暴11ab(兵种配置)&lt;/color&gt;&lt;color=yellow&gt;暴11abx20&lt;/color&gt;;功勋暴兵命令，&lt;color=#6DFF00&gt;z12x30&lt;/color&gt;爆30功勋的步弓手和武士;&lt;color=#6DFF00&gt;背包&lt;/color&gt;命令，可查看背包里的礼物;使用背包礼物，&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿水晶球&lt;/color&gt;可简写&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿&lt;/color&gt;;&lt;color=#6DFF00&gt;升&lt;/color&gt;级命令，&lt;color=#6DFF00&gt;升0&lt;/color&gt;升级长矛兵，优先金矿;&lt;color=#6DFF00&gt;查询&lt;/color&gt;命令可查看&lt;color=yellow&gt;金矿数和功勋&lt;/color&gt;;人数少的阵营在结算时可获得一定的补偿
 </t>
   </si>
 </sst>
@@ -43,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -64,7 +64,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -81,13 +87,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -95,14 +94,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,6 +167,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,77 +185,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,97 +241,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,73 +397,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,53 +425,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +463,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -525,148 +525,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" ht="50" customHeight="1" spans="1:2">
+    <row r="5" ht="218" customHeight="1" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>

--- a/resource/excel_ui/Setting.xlsx
+++ b/resource/excel_ui/Setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13005"/>
+    <workbookView windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <t>加入游戏&lt;color=yellow&gt;2金&lt;/color&gt;/s,自动出兵不消耗资源，发送字母和数字设置自动出兵配置。;&lt;color=#6DFF00&gt;礼物出的兵质量更高,还能获得功勋&lt;color=yellow&gt;1电池=0.5功勋&lt;/color&gt;，其余未列出的礼物按&lt;color=yellow&gt;1电池=1功勋&lt;/color&gt;结算&lt;/color&gt;;&lt;color=#6DFF00&gt;人气票&lt;/color&gt;=&lt;color=yellow&gt;60金&lt;/color&gt; | &lt;color=#6DFF00&gt;小花花&lt;/color&gt;=&lt;color=yellow&gt;30金&lt;/color&gt; | &lt;color=#6DFF00&gt;牛哇牛哇&lt;/color&gt;=&lt;color=yellow&gt;3*风琴炮&lt;/color&gt; | &lt;color=#6DFF00&gt;干杯&lt;/color&gt;=&lt;color=yellow&gt;15*乌尔班巨炮(防守利器)&lt;/color&gt; | &lt;color=#6DFF00&gt;棒棒糖&lt;/color&gt;=&lt;color=yellow&gt;5*精锐古拉姆&lt;/color&gt;;&lt;color=#6DFF00&gt;这个好诶&lt;/color&gt;=&lt;color=yellow&gt;16*精锐射击军&lt;/color&gt; | &lt;color=#6DFF00&gt;小蛋糕&lt;/color&gt;=&lt;color=yellow&gt;7*蜂窝炮&lt;/color&gt; | &lt;color=#6DFF00&gt;情书&lt;/color&gt;=&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;水晶之恋&lt;/color&gt;=&lt;color=yellow&gt;21*精锐大筒兵&lt;/color&gt;;&lt;color=#6DFF00&gt;告白花束&lt;/color&gt;=&lt;color=yellow&gt;120*精锐大筒兵&lt;/color&gt;+&lt;color=yellow&gt;100*精锐武士&lt;/color&gt;+&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;星河入梦&lt;/color&gt;=&lt;color=yellow&gt;旗本军团&lt;/color&gt;+&lt;color=yellow&gt;100*弩车&lt;/color&gt;;&lt;color=#6DFF00&gt;星愿水晶球&lt;/color&gt;=&lt;color=yellow&gt;国王卫队&lt;color=#93FF86&gt;(超高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;花式夸夸&lt;/color&gt;=&lt;color=yellow&gt;沙漠掠夺者军团&lt;color=#93FF86&gt;(高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;小蝴蝶&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%攻击(可叠加)&lt;/color&gt;&lt;/color&gt;;&lt;color=#6DFF00&gt;打call&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%血量(可叠加)&lt;/color&gt;  &lt;/color&gt;提督舰长福利可以查看置顶动态。</t>
   </si>
   <si>
-    <t xml:space="preserve">发送&lt;color=#6DFF00&gt;加入&lt;/color&gt;加入游戏，命令用的&lt;color=#6DFF00&gt;x&lt;/color&gt;都是&lt;color=yellow&gt;小写艾克斯&lt;/color&gt;;&lt;color=#6DFF00&gt;加石&lt;/color&gt;可以把塔换成石头&lt;color=yellow&gt;(不会被攻击)&lt;/color&gt;;&lt;color=#6DFF00&gt;攻&lt;/color&gt;红/蓝/红金/蓝金;&lt;color=#6DFF00&gt;点赞&lt;/color&gt;可获得&lt;color=yellow&gt;金矿&lt;/color&gt;粉丝牌有加成;&lt;color=#6DFF00&gt;签到&lt;/color&gt;命令，&lt;color=yellow&gt;舰长/提督/粉丝牌&lt;/color&gt;有加成;&lt;color=#6DFF00&gt;暴兵&lt;/color&gt;命令，&lt;color=yellow&gt;暴11ab(兵种配置)&lt;/color&gt;&lt;color=yellow&gt;暴11abx20&lt;/color&gt;;功勋暴兵命令，&lt;color=#6DFF00&gt;z12x30&lt;/color&gt;爆30功勋的步弓手和武士;&lt;color=#6DFF00&gt;背包&lt;/color&gt;命令，可查看背包里的礼物;使用背包礼物，&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿水晶球&lt;/color&gt;可简写&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿&lt;/color&gt;;&lt;color=#6DFF00&gt;升&lt;/color&gt;级命令，&lt;color=#6DFF00&gt;升0&lt;/color&gt;升级长矛兵，优先金矿;&lt;color=#6DFF00&gt;查询&lt;/color&gt;命令可查看&lt;color=yellow&gt;金矿数和功勋&lt;/color&gt;;人数少的阵营在结算时可获得一定的补偿
+    <t xml:space="preserve">发送&lt;color=#6DFF00&gt;加入或加石&lt;color=yellow&gt;(不会被攻击)&lt;/color&gt;&lt;/color&gt;加入游戏;&lt;color=#6DFF00&gt;攻&lt;/color&gt;红/蓝/上/下;&lt;color=#6DFF00&gt;点赞&lt;/color&gt;可获得&lt;color=yellow&gt;金矿&lt;/color&gt;粉丝牌有加成;&lt;color=#6DFF00&gt;签到&lt;/color&gt;命令，&lt;color=yellow&gt;舰长/提督/粉丝牌&lt;/color&gt;有加成;&lt;color=#6DFF00&gt;暴兵&lt;/color&gt;命令，&lt;color=yellow&gt;暴11ab(兵种配置)&lt;/color&gt;&lt;color=yellow&gt;暴11abx20&lt;/color&gt;;功勋暴兵命令，&lt;color=#6DFF00&gt;z12x30&lt;/color&gt;爆30功勋的步弓手和武士;&lt;color=#6DFF00&gt;背包&lt;/color&gt;命令，可查看背包里的礼物;使用背包礼物，&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿水晶球&lt;/color&gt;可简写&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿&lt;/color&gt;;&lt;color=#6DFF00&gt;升&lt;/color&gt;级命令，&lt;color=#6DFF00&gt;升0&lt;/color&gt;升级长矛兵，优先金矿;&lt;color=#6DFF00&gt;查询&lt;/color&gt;命令可查看&lt;color=yellow&gt;金矿数和功勋&lt;/color&gt;;人数少的阵营在结算时可获得一定的补偿
 </t>
   </si>
 </sst>
@@ -43,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -65,12 +65,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -86,15 +162,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,9 +185,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,86 +200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,175 +241,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,8 +426,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,212 +520,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>

--- a/resource/excel_ui/Setting.xlsx
+++ b/resource/excel_ui/Setting.xlsx
@@ -31,10 +31,10 @@
     <t>Partial:3</t>
   </si>
   <si>
-    <t>加入游戏&lt;color=yellow&gt;2金&lt;/color&gt;/s,自动出兵不消耗资源，发送字母和数字设置自动出兵配置。;&lt;color=#6DFF00&gt;礼物出的兵质量更高,还能获得功勋&lt;color=yellow&gt;1电池=0.5功勋&lt;/color&gt;，其余未列出的礼物按&lt;color=yellow&gt;1电池=1功勋&lt;/color&gt;结算&lt;/color&gt;;&lt;color=#6DFF00&gt;人气票&lt;/color&gt;=&lt;color=yellow&gt;60金&lt;/color&gt; | &lt;color=#6DFF00&gt;小花花&lt;/color&gt;=&lt;color=yellow&gt;30金&lt;/color&gt; | &lt;color=#6DFF00&gt;牛哇牛哇&lt;/color&gt;=&lt;color=yellow&gt;3*风琴炮&lt;/color&gt; | &lt;color=#6DFF00&gt;干杯&lt;/color&gt;=&lt;color=yellow&gt;15*乌尔班巨炮(防守利器)&lt;/color&gt; | &lt;color=#6DFF00&gt;棒棒糖&lt;/color&gt;=&lt;color=yellow&gt;5*精锐古拉姆&lt;/color&gt;;&lt;color=#6DFF00&gt;这个好诶&lt;/color&gt;=&lt;color=yellow&gt;16*精锐射击军&lt;/color&gt; | &lt;color=#6DFF00&gt;小蛋糕&lt;/color&gt;=&lt;color=yellow&gt;7*蜂窝炮&lt;/color&gt; | &lt;color=#6DFF00&gt;情书&lt;/color&gt;=&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;水晶之恋&lt;/color&gt;=&lt;color=yellow&gt;21*精锐大筒兵&lt;/color&gt;;&lt;color=#6DFF00&gt;告白花束&lt;/color&gt;=&lt;color=yellow&gt;120*精锐大筒兵&lt;/color&gt;+&lt;color=yellow&gt;100*精锐武士&lt;/color&gt;+&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;星河入梦&lt;/color&gt;=&lt;color=yellow&gt;旗本军团&lt;/color&gt;+&lt;color=yellow&gt;100*弩车&lt;/color&gt;;&lt;color=#6DFF00&gt;星愿水晶球&lt;/color&gt;=&lt;color=yellow&gt;国王卫队&lt;color=#93FF86&gt;(超高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;花式夸夸&lt;/color&gt;=&lt;color=yellow&gt;沙漠掠夺者军团&lt;color=#93FF86&gt;(高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;小蝴蝶&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%攻击(可叠加)&lt;/color&gt;&lt;/color&gt;;&lt;color=#6DFF00&gt;打call&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%血量(可叠加)&lt;/color&gt;  &lt;/color&gt;提督舰长福利可以查看置顶动态。</t>
+    <t>加入游戏&lt;color=yellow&gt;2金&lt;/color&gt;/s,自动出兵不消耗资源，发送字母和数字设置自动出兵配置。;&lt;color=#6DFF00&gt;礼物出的兵质量更高,还能获得功勋&lt;color=yellow&gt;1电池=0.5功勋&lt;/color&gt;，其余未列出的礼物按&lt;color=yellow&gt;1电池=1功勋&lt;/color&gt;结算&lt;/color&gt;;&lt;color=#6DFF00&gt;人气票&lt;/color&gt;=&lt;color=yellow&gt;60金&lt;/color&gt; | &lt;color=#6DFF00&gt;小花花&lt;/color&gt;=&lt;color=yellow&gt;30金&lt;/color&gt; | &lt;color=#6DFF00&gt;牛哇牛哇&lt;/color&gt;=&lt;color=yellow&gt;3*风琴炮&lt;/color&gt; | &lt;color=#6DFF00&gt;干杯&lt;/color&gt;=&lt;color=yellow&gt;15*乌尔班巨炮(防守利器)&lt;/color&gt; | &lt;color=#6DFF00&gt;棒棒糖&lt;/color&gt;=&lt;color=yellow&gt;5*精锐古拉姆&lt;/color&gt;;&lt;color=#6DFF00&gt;这个好诶&lt;/color&gt;=&lt;color=yellow&gt;16*精锐射击军&lt;/color&gt; | &lt;color=#6DFF00&gt;小蛋糕&lt;/color&gt;=&lt;color=yellow&gt;7*蜂窝炮&lt;/color&gt; | &lt;color=#6DFF00&gt;情书&lt;/color&gt;=&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;水晶之恋&lt;/color&gt;=&lt;color=yellow&gt;21*精锐大筒兵&lt;/color&gt;;&lt;color=#6DFF00&gt;告白花束&lt;/color&gt;=&lt;color=yellow&gt;120*精锐大筒兵&lt;/color&gt;+&lt;color=yellow&gt;100*精锐武士&lt;/color&gt;+&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;星河入梦&lt;/color&gt;=&lt;color=yellow&gt;旗本军团&lt;/color&gt;+&lt;color=yellow&gt;100*弩车&lt;/color&gt; | &lt;color=#6DFF00&gt;心动盲盒&lt;/color&gt;=&lt;color=yellow&gt;Boss战&lt;/color&gt;;&lt;color=#6DFF00&gt;星愿水晶球&lt;/color&gt;=&lt;color=yellow&gt;国王卫队&lt;color=#93FF86&gt;(超高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;花式夸夸&lt;/color&gt;=&lt;color=yellow&gt;沙漠掠夺者军团&lt;color=#93FF86&gt;(高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;小蝴蝶&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%攻击(可叠加)&lt;/color&gt;&lt;/color&gt;;&lt;color=#6DFF00&gt;打call&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%血量(可叠加)&lt;/color&gt;  &lt;/color&gt;提督舰长福利可以查看置顶动态。</t>
   </si>
   <si>
-    <t xml:space="preserve">发送&lt;color=#6DFF00&gt;加入或加石&lt;color=yellow&gt;(不会被攻击)&lt;/color&gt;&lt;/color&gt;加入游戏;&lt;color=#6DFF00&gt;攻&lt;/color&gt;红/蓝/上/下;&lt;color=#6DFF00&gt;点赞&lt;/color&gt;可获得&lt;color=yellow&gt;金矿&lt;/color&gt;粉丝牌有加成;&lt;color=#6DFF00&gt;签到&lt;/color&gt;命令，&lt;color=yellow&gt;舰长/提督/粉丝牌&lt;/color&gt;有加成;&lt;color=#6DFF00&gt;暴兵&lt;/color&gt;命令，&lt;color=yellow&gt;暴11ab(兵种配置)&lt;/color&gt;&lt;color=yellow&gt;暴11abx20&lt;/color&gt;;功勋暴兵命令，&lt;color=#6DFF00&gt;z12x30&lt;/color&gt;爆30功勋的步弓手和武士;&lt;color=#6DFF00&gt;背包&lt;/color&gt;命令，可查看背包里的礼物;使用背包礼物，&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿水晶球&lt;/color&gt;可简写&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿&lt;/color&gt;;&lt;color=#6DFF00&gt;升&lt;/color&gt;级命令，&lt;color=#6DFF00&gt;升0&lt;/color&gt;升级长矛兵，优先金矿;&lt;color=#6DFF00&gt;查询&lt;/color&gt;命令可查看&lt;color=yellow&gt;金矿数和功勋&lt;/color&gt;;人数少的阵营在结算时可获得一定的补偿
+    <t xml:space="preserve">发送&lt;color=#6DFF00&gt;加石或加塔&lt;color=yellow&gt;(塔会被攻击石头无敌)&lt;/color&gt;&lt;/color&gt;;&lt;color=#6DFF00&gt;攻&lt;/color&gt;红/蓝/上/下;&lt;color=#6DFF00&gt;点赞&lt;/color&gt;可获得&lt;color=yellow&gt;金矿&lt;/color&gt;粉丝牌有加成;&lt;color=#6DFF00&gt;签到&lt;/color&gt;命令，&lt;color=yellow&gt;舰长/提督/粉丝牌&lt;/color&gt;有加成;&lt;color=#6DFF00&gt;暴兵&lt;/color&gt;命令，&lt;color=yellow&gt;暴11ab(兵种配置)&lt;/color&gt;&lt;color=yellow&gt;暴11abx20&lt;/color&gt;;功勋暴兵命令，&lt;color=#6DFF00&gt;z12x30&lt;/color&gt;爆30功勋的步弓手和武士;&lt;color=#6DFF00&gt;背包&lt;/color&gt;命令，可查看背包里的礼物;使用背包礼物，&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿水晶球&lt;/color&gt;可简写&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿&lt;/color&gt;;&lt;color=#6DFF00&gt;升&lt;/color&gt;级命令，&lt;color=#6DFF00&gt;升0&lt;/color&gt;升级长矛兵，优先金矿;&lt;color=#6DFF00&gt;查询&lt;/color&gt;命令可查看&lt;color=yellow&gt;金矿数和功勋&lt;/color&gt;;人数少的阵营在结算时可获得一定的补偿
 </t>
   </si>
 </sst>
@@ -43,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -65,6 +65,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -72,7 +79,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,40 +107,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,7 +164,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +180,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,52 +207,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -241,175 +241,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,11 +423,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,6 +443,54 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,15 +512,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -475,198 +520,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/resource/excel_ui/Setting.xlsx
+++ b/resource/excel_ui/Setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13590"/>
+    <workbookView windowWidth="21480" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>Partial:3</t>
   </si>
   <si>
-    <t>加入游戏&lt;color=yellow&gt;2金&lt;/color&gt;/s,自动出兵不消耗资源，发送字母和数字设置自动出兵配置。;&lt;color=#6DFF00&gt;礼物出的兵质量更高,还能获得功勋&lt;color=yellow&gt;1电池=0.5功勋&lt;/color&gt;，其余未列出的礼物按&lt;color=yellow&gt;1电池=1功勋&lt;/color&gt;结算&lt;/color&gt;;&lt;color=#6DFF00&gt;人气票&lt;/color&gt;=&lt;color=yellow&gt;60金&lt;/color&gt; | &lt;color=#6DFF00&gt;小花花&lt;/color&gt;=&lt;color=yellow&gt;30金&lt;/color&gt; | &lt;color=#6DFF00&gt;牛哇牛哇&lt;/color&gt;=&lt;color=yellow&gt;3*风琴炮&lt;/color&gt; | &lt;color=#6DFF00&gt;干杯&lt;/color&gt;=&lt;color=yellow&gt;15*乌尔班巨炮(防守利器)&lt;/color&gt; | &lt;color=#6DFF00&gt;棒棒糖&lt;/color&gt;=&lt;color=yellow&gt;5*精锐古拉姆&lt;/color&gt;;&lt;color=#6DFF00&gt;这个好诶&lt;/color&gt;=&lt;color=yellow&gt;16*精锐射击军&lt;/color&gt; | &lt;color=#6DFF00&gt;小蛋糕&lt;/color&gt;=&lt;color=yellow&gt;7*蜂窝炮&lt;/color&gt; | &lt;color=#6DFF00&gt;情书&lt;/color&gt;=&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;水晶之恋&lt;/color&gt;=&lt;color=yellow&gt;21*精锐大筒兵&lt;/color&gt;;&lt;color=#6DFF00&gt;告白花束&lt;/color&gt;=&lt;color=yellow&gt;120*精锐大筒兵&lt;/color&gt;+&lt;color=yellow&gt;100*精锐武士&lt;/color&gt;+&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;星河入梦&lt;/color&gt;=&lt;color=yellow&gt;旗本军团&lt;/color&gt;+&lt;color=yellow&gt;100*弩车&lt;/color&gt; | &lt;color=#6DFF00&gt;心动盲盒&lt;/color&gt;=&lt;color=yellow&gt;Boss战&lt;/color&gt;;&lt;color=#6DFF00&gt;星愿水晶球&lt;/color&gt;=&lt;color=yellow&gt;国王卫队&lt;color=#93FF86&gt;(超高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;花式夸夸&lt;/color&gt;=&lt;color=yellow&gt;沙漠掠夺者军团&lt;color=#93FF86&gt;(高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;小蝴蝶&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%攻击(可叠加)&lt;/color&gt;&lt;/color&gt;;&lt;color=#6DFF00&gt;打call&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%血量(可叠加)&lt;/color&gt;  &lt;/color&gt;提督舰长福利可以查看置顶动态。</t>
+    <t>加入游戏&lt;color=yellow&gt;2金&lt;/color&gt;/s,自动出兵不消耗资源，发送字母和数字设置自动出兵配置。&lt;color=#93FF86&gt;提督舰长福利可以查看置顶动态。&lt;/color&gt;;&lt;color=#6DFF00&gt;礼物出的兵质量更高&lt;/color&gt;，其余未列出的礼物按&lt;color=yellow&gt;1电池=1功勋&lt;/color&gt;结算;&lt;color=#6DFF00&gt;人气票&lt;/color&gt;=&lt;color=yellow&gt;60金&lt;/color&gt; | &lt;color=#6DFF00&gt;小花花&lt;/color&gt;=&lt;color=yellow&gt;30金&lt;/color&gt; | &lt;color=#6DFF00&gt;牛哇牛哇&lt;/color&gt;=&lt;color=yellow&gt;3*风琴炮&lt;/color&gt; | &lt;color=#6DFF00&gt;干杯&lt;/color&gt;=&lt;color=yellow&gt;68*乌尔班巨炮(防守利器)&lt;/color&gt; | &lt;color=#6DFF00&gt;棒棒糖&lt;/color&gt;=&lt;color=yellow&gt;5*精锐古拉姆&lt;/color&gt;;&lt;color=#6DFF00&gt;这个好诶&lt;/color&gt;=&lt;color=yellow&gt;16*精锐射击军&lt;/color&gt; | &lt;color=#6DFF00&gt;小蛋糕&lt;/color&gt;=&lt;color=yellow&gt;7*蜂窝炮&lt;/color&gt; | &lt;color=#6DFF00&gt;情书&lt;/color&gt;=&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;水晶之恋&lt;/color&gt;=&lt;color=yellow&gt;21*精锐大筒兵&lt;/color&gt;;&lt;color=#6DFF00&gt;告白花束&lt;/color&gt;=&lt;color=yellow&gt;120*精锐大筒兵&lt;/color&gt;+&lt;color=yellow&gt;100*精锐武士&lt;/color&gt;+&lt;color=yellow&gt;12*皇家长管炮&lt;/color&gt; | &lt;color=#6DFF00&gt;星河入梦&lt;/color&gt;=&lt;color=yellow&gt;旗本军团&lt;/color&gt;+&lt;color=yellow&gt;100*弩车&lt;/color&gt; | &lt;color=#6DFF00&gt;心动盲盒&lt;/color&gt;=&lt;color=yellow&gt;Boss战&lt;/color&gt;;&lt;color=#6DFF00&gt;星愿水晶球&lt;/color&gt;=&lt;color=yellow&gt;国王卫队&lt;color=#93FF86&gt;(超高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;花式夸夸&lt;/color&gt;=&lt;color=yellow&gt;沙漠掠夺者军团&lt;color=#93FF86&gt;(高质量)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;小蝴蝶&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%攻击(可叠加)&lt;/color&gt;&lt;/color&gt;;&lt;color=#6DFF00&gt;打call&lt;/color&gt;=&lt;color=yellow&gt;后续部队&lt;color=#93FF86&gt;+10%血量(可叠加)&lt;/color&gt;&lt;/color&gt; | &lt;color=#6DFF00&gt;为你打call&lt;/color&gt;=&lt;color=yellow&gt;160*火枪&lt;color=#93FF86&gt;+1天3倍舰长体验卡&lt;/color&gt;+30*牛哇牛哇&lt;/color&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">发送&lt;color=#6DFF00&gt;加石或加塔&lt;color=yellow&gt;(塔会被攻击石头无敌)&lt;/color&gt;&lt;/color&gt;;&lt;color=#6DFF00&gt;攻&lt;/color&gt;红/蓝/上/下;&lt;color=#6DFF00&gt;点赞&lt;/color&gt;可获得&lt;color=yellow&gt;金矿&lt;/color&gt;粉丝牌有加成;&lt;color=#6DFF00&gt;签到&lt;/color&gt;命令，&lt;color=yellow&gt;舰长/提督/粉丝牌&lt;/color&gt;有加成;&lt;color=#6DFF00&gt;暴兵&lt;/color&gt;命令，&lt;color=yellow&gt;暴11ab(兵种配置)&lt;/color&gt;&lt;color=yellow&gt;暴11abx20&lt;/color&gt;;功勋暴兵命令，&lt;color=#6DFF00&gt;z12x30&lt;/color&gt;爆30功勋的步弓手和武士;&lt;color=#6DFF00&gt;背包&lt;/color&gt;命令，可查看背包里的礼物;使用背包礼物，&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿水晶球&lt;/color&gt;可简写&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿&lt;/color&gt;;&lt;color=#6DFF00&gt;升&lt;/color&gt;级命令，&lt;color=#6DFF00&gt;升0&lt;/color&gt;升级长矛兵，优先金矿;&lt;color=#6DFF00&gt;查询&lt;/color&gt;命令可查看&lt;color=yellow&gt;金矿数和功勋&lt;/color&gt;;人数少的阵营在结算时可获得一定的补偿
@@ -44,9 +44,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,14 +79,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,14 +102,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -125,32 +147,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,47 +163,48 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,175 +241,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,50 +423,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +456,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -509,164 +520,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
